--- a/yearly_data.xlsx
+++ b/yearly_data.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Drought</t>
   </si>
   <si>
-    <t xml:space="preserve">Concentration</t>
+    <t xml:space="preserve">Counts</t>
   </si>
   <si>
     <t xml:space="preserve">Species</t>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.213333333333333</v>
+        <v>21</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.213333333333333</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5.01333333333333</v>
+        <v>501</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5.65333333333333</v>
+        <v>565</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.28</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.106666666666667</v>
+        <v>11</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="s">
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.106666666666667</v>
+        <v>11</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="s">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.106666666666667</v>
+        <v>11</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.12</v>
+        <v>112</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="s">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.64</v>
+        <v>64</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.2</v>
+        <v>320</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.48</v>
+        <v>48</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.496</v>
+        <v>50</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.016</v>
+        <v>2</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.016</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.336</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
         <v>28</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.096</v>
+        <v>10</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="s">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.016</v>
+        <v>2</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="s">
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0900000009000421</v>
+        <v>9</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0500000005000234</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.170000001700079</v>
+        <v>17</v>
       </c>
       <c r="J5"/>
       <c r="K5" t="s">
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>282</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="s">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="s">
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.82</v>
+        <v>282</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.250000002500117</v>
+        <v>25</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.110000001100051</v>
+        <v>11</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0700000007000327</v>
+        <v>7</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0500000005000234</v>
+        <v>5</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0800000008000374</v>
+        <v>8</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0800000008000374</v>
+        <v>8</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.230000002300108</v>
+        <v>23</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>360</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.426666666666667</v>
+        <v>43</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="s">
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.6</v>
+        <v>960</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.64</v>
+        <v>64</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J40" t="s">
         <v>28</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.24</v>
+        <v>24</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.92307692307692</v>
+        <v>192</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.160064025610244</v>
+        <v>16</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
@@ -4334,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.47000000470022</v>
+        <v>47</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0700000007000327</v>
+        <v>7</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.100000001000047</v>
+        <v>10</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0900000009000421</v>
+        <v>9</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.384615384615385</v>
+        <v>38</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.128205128205128</v>
+        <v>13</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="s">
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.128205128205128</v>
+        <v>13</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="s">
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.128205128205128</v>
+        <v>13</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="s">
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.53846153846154</v>
+        <v>154</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="s">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.128205128205128</v>
+        <v>13</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="s">
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.384615384615385</v>
+        <v>38</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.128205128205128</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
         <v>28</v>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>7.17948717948718</v>
+        <v>718</v>
       </c>
       <c r="J67" t="s">
         <v>28</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1.79487179487179</v>
+        <v>179</v>
       </c>
       <c r="J68" t="s">
         <v>28</v>
@@ -5136,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.128205128205128</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
         <v>28</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.384615384615385</v>
+        <v>38</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.02564102564103</v>
+        <v>103</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.160064025610244</v>
+        <v>16</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>2.24089635854342</v>
+        <v>224</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.080032012805122</v>
+        <v>8</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.160064025610244</v>
+        <v>16</v>
       </c>
       <c r="J79" t="s">
         <v>28</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.480192076830732</v>
+        <v>48</v>
       </c>
       <c r="J80" t="s">
         <v>28</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.240096038415366</v>
+        <v>24</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.24</v>
+        <v>24</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="s">
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="s">
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -5969,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1.12</v>
+        <v>112</v>
       </c>
       <c r="J88" t="s">
         <v>28</v>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>8.4</v>
+        <v>840</v>
       </c>
       <c r="J89" t="s">
         <v>28</v>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="J90" t="s">
         <v>28</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.992</v>
+        <v>99</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.032</v>
+        <v>3</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.032</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.048</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.064</v>
+        <v>6</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.184</v>
+        <v>118</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.152</v>
+        <v>115</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.384</v>
+        <v>38</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="s">
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.064</v>
+        <v>6</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.032</v>
+        <v>3</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="s">
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.05333333333333</v>
+        <v>405</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.853333333333333</v>
+        <v>85</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.426666666666667</v>
+        <v>43</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.426666666666667</v>
+        <v>43</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -6981,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.0769230769231</v>
+        <v>4808</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>7.05128205128205</v>
+        <v>705</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.76923076923077</v>
+        <v>577</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.76923076923077</v>
+        <v>577</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.20512820512821</v>
+        <v>321</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>51.9230769230769</v>
+        <v>5192</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.56410256410256</v>
+        <v>256</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="s">
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.16666666666667</v>
+        <v>417</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.72435897435897</v>
+        <v>272</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.24358974358974</v>
+        <v>224</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.44230769230769</v>
+        <v>144</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.801282051282051</v>
+        <v>80</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="s">
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.480769230769231</v>
+        <v>48</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.400320256204964</v>
+        <v>40</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="s">
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.480384307445957</v>
+        <v>48</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
@@ -8036,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.24</v>
+        <v>24</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.133333333333333</v>
+        <v>13</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
         <v>28</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.853333333333333</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.213333333333333</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0266666666666667</v>
+        <v>3</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.14</v>
+        <v>14</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.30000000300014</v>
+        <v>30</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.110000001100051</v>
+        <v>11</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
@@ -9048,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0700000007000327</v>
+        <v>7</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.0700000007000327</v>
+        <v>7</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0500000005000234</v>
+        <v>5</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="s">
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0500000005000234</v>
+        <v>5</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="s">
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="s">
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="s">
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.170000001700079</v>
+        <v>17</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="s">
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.170000001700079</v>
+        <v>17</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="s">
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.110000001100051</v>
+        <v>11</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="s">
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0900000009000421</v>
+        <v>9</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0900000009000421</v>
+        <v>9</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.060000000600028</v>
+        <v>6</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0500000005000234</v>
+        <v>5</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -9952,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.110000001100051</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
         <v>28</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0900000009000421</v>
+        <v>9</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
@@ -10058,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.02666666666667</v>
+        <v>203</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
@@ -10362,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.426666666666667</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.106666666666667</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.26</v>
+        <v>26</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.36</v>
+        <v>36</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="s">
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="s">
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
@@ -10669,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82666666666667</v>
+        <v>283</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="s">
@@ -10714,7 +10714,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.533333333333333</v>
+        <v>53</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.213333333333333</v>
+        <v>21</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="s">
@@ -10796,7 +10796,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0533333333333333</v>
+        <v>5</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.4</v>
+        <v>1040</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.24</v>
+        <v>224</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
@@ -10976,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.190000001900089</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.28</v>
+        <v>128</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -11287,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.32000000320015</v>
+        <v>32</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0800000008000374</v>
+        <v>8</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="s">
@@ -11422,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="s">
@@ -11504,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
@@ -11549,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.42666666666667</v>
+        <v>243</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
@@ -11594,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.826666666666667</v>
+        <v>83</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
@@ -11639,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.213333333333333</v>
+        <v>21</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -11680,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.426666666666667</v>
+        <v>43</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -11721,7 +11721,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.533333333333333</v>
+        <v>53</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -11758,7 +11758,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="s">
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.293333333333333</v>
+        <v>29</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
@@ -11848,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.106666666666667</v>
+        <v>11</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
@@ -11893,7 +11893,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
@@ -11938,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0266666666666667</v>
+        <v>3</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0266666666666667</v>
+        <v>3</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
@@ -12028,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0266666666666667</v>
+        <v>3</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.5213675213675</v>
+        <v>1752</v>
       </c>
       <c r="J43" t="s">
         <v>28</v>
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>15.8119658119658</v>
+        <v>1581</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
@@ -12167,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.961538461538462</v>
+        <v>96</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2.99145299145299</v>
+        <v>299</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
@@ -12392,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
@@ -12519,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
@@ -12564,7 +12564,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2.13675213675214</v>
+        <v>214</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1.70940170940171</v>
+        <v>171</v>
       </c>
       <c r="J55" t="s">
         <v>28</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1.6025641025641</v>
+        <v>160</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.533475593491598</v>
+        <v>53</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.213390237396639</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
         <v>28</v>
@@ -12830,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.320085356094959</v>
+        <v>32</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.266737796745799</v>
+        <v>27</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
@@ -12924,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.52</v>
+        <v>52</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -12961,7 +12961,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="s">
@@ -13006,7 +13006,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="s">
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>4.16</v>
+        <v>416</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="s">
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="s">
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -13227,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J69" t="s">
         <v>28</v>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="J70" t="s">
         <v>28</v>
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.84</v>
+        <v>184</v>
       </c>
       <c r="J71" t="s">
         <v>28</v>
@@ -13368,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1.76</v>
+        <v>176</v>
       </c>
       <c r="J72" t="s">
         <v>28</v>
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.14</v>
+        <v>14</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.14</v>
+        <v>14</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
@@ -13550,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
@@ -13595,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
@@ -13640,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.801282051282051</v>
+        <v>80</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
@@ -13685,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.801282051282051</v>
+        <v>80</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
@@ -13730,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
@@ -13775,7 +13775,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
@@ -13820,7 +13820,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -13857,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
@@ -13902,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>2.56410256410256</v>
+        <v>256</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
@@ -13947,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>4.32692307692308</v>
+        <v>433</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -13988,7 +13988,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>11.5384615384615</v>
+        <v>1154</v>
       </c>
       <c r="J86" t="s">
         <v>28</v>
@@ -14035,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>15.3846153846154</v>
+        <v>1538</v>
       </c>
       <c r="J87" t="s">
         <v>28</v>
@@ -14082,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1.92307692307692</v>
+        <v>192</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="s">
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.62</v>
+        <v>62</v>
       </c>
       <c r="J89"/>
       <c r="K89" t="s">
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="s">
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J92"/>
       <c r="K92" t="s">
@@ -14299,7 +14299,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>3.02</v>
+        <v>302</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="s">
@@ -14344,7 +14344,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.24</v>
+        <v>24</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="s">
@@ -14389,7 +14389,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J95"/>
       <c r="K95" t="s">
@@ -14434,7 +14434,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>2.24</v>
+        <v>224</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="s">
@@ -14479,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>44.16</v>
+        <v>4416</v>
       </c>
       <c r="J97"/>
       <c r="K97" t="s">
@@ -14524,7 +14524,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>20.16</v>
+        <v>2016</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -14565,7 +14565,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>9.92</v>
+        <v>992</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -14612,7 +14612,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>9.6</v>
+        <v>960</v>
       </c>
       <c r="J100" t="s">
         <v>28</v>
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J101" t="s">
         <v>28</v>
@@ -14706,7 +14706,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>14.4</v>
+        <v>1440</v>
       </c>
       <c r="J102"/>
       <c r="K102" t="s">
@@ -14751,7 +14751,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.625</v>
+        <v>63</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -14788,7 +14788,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>50.6410256410256</v>
+        <v>5064</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="s">
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>11.875</v>
+        <v>1188</v>
       </c>
       <c r="J105"/>
       <c r="K105" t="s">
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>13.4375</v>
+        <v>1344</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -14919,7 +14919,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J107" t="s">
         <v>28</v>
@@ -14966,7 +14966,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>3.20512820512821</v>
+        <v>321</v>
       </c>
       <c r="J108" t="s">
         <v>28</v>
@@ -15013,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>5.12820512820513</v>
+        <v>513</v>
       </c>
       <c r="J109" t="s">
         <v>28</v>
@@ -15060,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J110" t="s">
         <v>28</v>
@@ -15107,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>49.3589743589744</v>
+        <v>4936</v>
       </c>
       <c r="J111"/>
       <c r="K111" t="s">
@@ -15152,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>6.4</v>
+        <v>640</v>
       </c>
       <c r="J112"/>
       <c r="K112" t="s">
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>2.88</v>
+        <v>288</v>
       </c>
       <c r="J113"/>
       <c r="K113" t="s">
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.28</v>
+        <v>128</v>
       </c>
       <c r="J114"/>
       <c r="K114" t="s">
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="J115"/>
       <c r="K115" t="s">
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J116"/>
       <c r="K116" t="s">
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J117"/>
       <c r="K117" t="s">
@@ -15422,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J118"/>
       <c r="K118" t="s">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J120"/>
       <c r="K120" t="s">
@@ -15549,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J121"/>
       <c r="K121" t="s">
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>23.68</v>
+        <v>2368</v>
       </c>
       <c r="J122" t="s">
         <v>28</v>
@@ -15641,7 +15641,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>5.12</v>
+        <v>512</v>
       </c>
       <c r="J123" t="s">
         <v>28</v>
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56410256410256</v>
+        <v>256</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -15812,7 +15812,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.56410256410256</v>
+        <v>256</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
@@ -15863,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
@@ -16008,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2.56410256410256</v>
+        <v>256</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="s">
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="s">
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7692307692308</v>
+        <v>8077</v>
       </c>
       <c r="J9" t="s">
         <v>28</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>16.6666666666667</v>
+        <v>1667</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>179.487179487179</v>
+        <v>17949</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
@@ -16269,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.84615384615385</v>
+        <v>385</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.16</v>
+        <v>416</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="s">
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.68</v>
+        <v>168</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
@@ -16424,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.2</v>
+        <v>120</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -16467,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
@@ -16518,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
@@ -16569,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.92</v>
+        <v>192</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.56</v>
+        <v>56</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -16714,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
@@ -16816,7 +16816,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10.2564102564103</v>
+        <v>1026</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
@@ -16867,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
@@ -16969,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.480769230769231</v>
+        <v>48</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.480769230769231</v>
+        <v>48</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="s">
@@ -17071,7 +17071,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.480769230769231</v>
+        <v>48</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -17114,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="s">
@@ -17165,7 +17165,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
@@ -17216,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="s">
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J34" t="s">
         <v>28</v>
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>5.92948717948718</v>
+        <v>593</v>
       </c>
       <c r="J35" t="s">
         <v>28</v>
@@ -17475,7 +17475,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.25</v>
+        <v>625</v>
       </c>
       <c r="J36" t="s">
         <v>28</v>
@@ -17528,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
@@ -17579,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.97435897435897</v>
+        <v>897</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.12179487179487</v>
+        <v>112</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.801282051282051</v>
+        <v>80</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.480769230769231</v>
+        <v>48</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
@@ -17885,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -18081,7 +18081,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>56.4102564102564</v>
+        <v>5641</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>3.84615384615385</v>
+        <v>385</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>18.5897435897436</v>
+        <v>1859</v>
       </c>
       <c r="J50" t="s">
         <v>28</v>
@@ -18240,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.92307692307692</v>
+        <v>192</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
@@ -18411,7 +18411,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -18462,7 +18462,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -18505,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>340</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>28</v>
@@ -18662,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="s">
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="s">
@@ -18811,7 +18811,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -18905,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.180000001800084</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
@@ -18958,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.230000002300108</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
         <v>28</v>
@@ -19011,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.04</v>
+        <v>104</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
@@ -19362,7 +19362,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.32000000320015</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
@@ -19415,7 +19415,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
@@ -19468,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
@@ -19519,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
@@ -19570,7 +19570,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -19664,7 +19664,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.700000007000327</v>
+        <v>70</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="s">
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.060000000600028</v>
+        <v>6</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="s">
@@ -19766,7 +19766,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.230000002300108</v>
+        <v>23</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0400000004000187</v>
+        <v>4</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -19913,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
@@ -19964,7 +19964,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.240000002400112</v>
+        <v>24</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -20007,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.100000001000047</v>
+        <v>10</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
@@ -20109,7 +20109,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="s">
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
@@ -20211,7 +20211,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
@@ -20262,7 +20262,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
@@ -20313,7 +20313,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.4831460674157</v>
+        <v>1348</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.80898876404494</v>
+        <v>281</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
@@ -20415,7 +20415,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.12359550561798</v>
+        <v>112</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.561797752808989</v>
+        <v>56</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -20509,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.491573033707865</v>
+        <v>49</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.561797752808989</v>
+        <v>56</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
@@ -20611,7 +20611,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.280898876404494</v>
+        <v>28</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -20658,7 +20658,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.561797752808989</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s">
         <v>28</v>
@@ -20711,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1.68539325842697</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
         <v>28</v>
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2.24719101123596</v>
+        <v>225</v>
       </c>
       <c r="J49" t="s">
         <v>28</v>
@@ -20817,7 +20817,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1.40449438202247</v>
+        <v>140</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
@@ -20868,7 +20868,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.280898876404494</v>
+        <v>28</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
@@ -20919,7 +20919,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.140449438202247</v>
+        <v>14</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
@@ -20970,7 +20970,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.140449438202247</v>
+        <v>14</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
@@ -21021,7 +21021,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.64</v>
+        <v>64</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
@@ -21123,7 +21123,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.34</v>
+        <v>34</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
@@ -21217,7 +21217,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.14</v>
+        <v>14</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
@@ -21268,7 +21268,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
@@ -21319,7 +21319,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="s">
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>125</v>
+        <v>12500</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2.34</v>
+        <v>234</v>
       </c>
       <c r="J62" t="s">
         <v>28</v>
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J63" t="s">
         <v>28</v>
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
         <v>28</v>
@@ -21576,7 +21576,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>125</v>
+        <v>12500</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.32</v>
+        <v>32</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="s">
@@ -21674,7 +21674,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="s">
@@ -21725,7 +21725,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="s">
@@ -21776,7 +21776,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -21878,7 +21878,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
@@ -21929,7 +21929,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -22031,7 +22031,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
@@ -22082,7 +22082,7 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
@@ -22133,7 +22133,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
@@ -22184,7 +22184,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -22227,7 +22227,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>7.69230769230769</v>
+        <v>769</v>
       </c>
       <c r="J78" t="s">
         <v>28</v>
@@ -22280,7 +22280,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>24.0384615384615</v>
+        <v>2404</v>
       </c>
       <c r="J79" t="s">
         <v>28</v>
@@ -22333,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
@@ -22384,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>21.12</v>
+        <v>2112</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.48</v>
+        <v>48</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
@@ -22486,7 +22486,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
@@ -22537,7 +22537,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
@@ -22588,7 +22588,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="s">
@@ -22639,7 +22639,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -22682,7 +22682,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>2.88461538461538</v>
+        <v>288</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="s">
@@ -22780,7 +22780,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -22823,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="s">
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="s">
@@ -22925,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.16025641025641</v>
+        <v>16</v>
       </c>
       <c r="J92"/>
       <c r="K92" t="s">
@@ -22976,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="s">
@@ -23027,7 +23027,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>64.1025641025641</v>
+        <v>6410</v>
       </c>
       <c r="J94" t="s">
         <v>28</v>
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>5.12820512820513</v>
+        <v>513</v>
       </c>
       <c r="J95" t="s">
         <v>28</v>
@@ -23133,7 +23133,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>6.41025641025641</v>
+        <v>641</v>
       </c>
       <c r="J96" t="s">
         <v>28</v>
@@ -23186,7 +23186,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1.92307692307692</v>
+        <v>192</v>
       </c>
       <c r="J97"/>
       <c r="K97" t="s">
@@ -23304,7 +23304,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.030000000300014</v>
+        <v>3</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
@@ -23406,7 +23406,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J5"/>
       <c r="K5" t="s">
@@ -23508,7 +23508,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7200000172008</v>
+        <v>172</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
@@ -23559,7 +23559,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.170000001700079</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>28</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.370000003700173</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>28</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0900000009000421</v>
+        <v>9</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0800000008000374</v>
+        <v>8</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0500000005000234</v>
+        <v>5</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="s">
@@ -23806,7 +23806,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
@@ -23857,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="s">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
@@ -23959,7 +23959,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
@@ -24061,7 +24061,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0100000001000047</v>
+        <v>1</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
@@ -24163,7 +24163,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.86</v>
+        <v>186</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0200000002000093</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
@@ -24267,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0500000005000234</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
@@ -24320,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.26</v>
+        <v>26</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -24363,7 +24363,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
@@ -24465,7 +24465,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
@@ -24516,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="s">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.53333333333333</v>
+        <v>253</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="s">
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="s">
@@ -24720,7 +24720,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s">
         <v>28</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="J31" t="s">
         <v>28</v>
@@ -24826,7 +24826,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
@@ -24869,7 +24869,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0266666666666667</v>
+        <v>3</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="s">
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0266666666666667</v>
+        <v>3</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0266666666666667</v>
+        <v>3</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2</v>
+        <v>20</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="s">
@@ -25073,7 +25073,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J37" t="s">
         <v>28</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
         <v>28</v>
@@ -25179,7 +25179,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
@@ -25232,7 +25232,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.58</v>
+        <v>58</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
@@ -25428,7 +25428,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.33333333333333</v>
+        <v>833</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
@@ -25479,7 +25479,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.20512820512821</v>
+        <v>321</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3.20512820512821</v>
+        <v>321</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
@@ -25581,7 +25581,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.92307692307692</v>
+        <v>192</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
@@ -25632,7 +25632,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
@@ -25683,7 +25683,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
@@ -25734,7 +25734,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1.92307692307692</v>
+        <v>192</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
@@ -25785,7 +25785,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -25832,7 +25832,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J52" t="s">
         <v>28</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4.48717948717949</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
         <v>28</v>
@@ -25938,7 +25938,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>172.435897435897</v>
+        <v>17244</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J55" t="s">
         <v>28</v>
@@ -26044,7 +26044,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
@@ -26095,7 +26095,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>13.2478632478632</v>
+        <v>1325</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
@@ -26146,7 +26146,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>4.7008547008547</v>
+        <v>470</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -26189,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>4.27350427350427</v>
+        <v>427</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
@@ -26240,7 +26240,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2.56410256410256</v>
+        <v>256</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="s">
@@ -26291,7 +26291,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2.13675213675214</v>
+        <v>214</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="s">
@@ -26342,7 +26342,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.427350427350427</v>
+        <v>43</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="s">
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.427350427350427</v>
+        <v>43</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="s">
@@ -26444,7 +26444,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.427350427350427</v>
+        <v>43</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="s">
@@ -26495,7 +26495,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>10.4700854700855</v>
+        <v>1047</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
@@ -26546,7 +26546,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.854700854700855</v>
+        <v>85</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -26593,7 +26593,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>7.26495726495726</v>
+        <v>726</v>
       </c>
       <c r="J67" t="s">
         <v>28</v>
@@ -26646,7 +26646,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.213675213675214</v>
+        <v>21</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="s">
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -26748,7 +26748,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.28</v>
+        <v>28</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -26791,7 +26791,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
@@ -26842,7 +26842,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -26893,7 +26893,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="s">
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.94</v>
+        <v>94</v>
       </c>
       <c r="J74" t="s">
         <v>28</v>
@@ -26997,7 +26997,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s">
         <v>28</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -27103,7 +27103,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.28</v>
+        <v>28</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
@@ -27205,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.06</v>
+        <v>6</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
@@ -27256,7 +27256,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
@@ -27307,7 +27307,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
@@ -27358,7 +27358,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
@@ -27409,7 +27409,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="s">
@@ -27562,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="s">
@@ -27613,7 +27613,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="s">
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="s">
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="s">
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="s">
@@ -27860,7 +27860,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J92" t="s">
         <v>28</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>23.7179487179487</v>
+        <v>2372</v>
       </c>
       <c r="J93" t="s">
         <v>28</v>
@@ -27966,7 +27966,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>25.6410256410256</v>
+        <v>2564</v>
       </c>
       <c r="J94" t="s">
         <v>28</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.320512820512821</v>
+        <v>32</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
@@ -28066,7 +28066,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1.92307692307692</v>
+        <v>192</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="s">
@@ -28117,7 +28117,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>17.6923076923077</v>
+        <v>1769</v>
       </c>
       <c r="J97"/>
       <c r="K97" t="s">
@@ -28168,7 +28168,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.923076923076923</v>
+        <v>92</v>
       </c>
       <c r="J98"/>
       <c r="K98" t="s">
@@ -28219,7 +28219,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.153846153846154</v>
+        <v>15</v>
       </c>
       <c r="J99"/>
       <c r="K99" t="s">
@@ -28270,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.153846153846154</v>
+        <v>15</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -28313,7 +28313,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>10.2564102564103</v>
+        <v>1026</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -28356,7 +28356,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>7.69230769230769</v>
+        <v>769</v>
       </c>
       <c r="J102"/>
       <c r="K102" t="s">
@@ -28407,7 +28407,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>200</v>
+        <v>20000</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>43.5897435897436</v>
+        <v>4359</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="s">
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>69.2307692307692</v>
+        <v>6923</v>
       </c>
       <c r="J105"/>
       <c r="K105" t="s">
@@ -28556,7 +28556,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>12.1794871794872</v>
+        <v>1218</v>
       </c>
       <c r="J106" t="s">
         <v>28</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>5.76923076923077</v>
+        <v>577</v>
       </c>
       <c r="J107" t="s">
         <v>28</v>
@@ -28662,7 +28662,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.641025641025641</v>
+        <v>64</v>
       </c>
       <c r="J108"/>
       <c r="K108" t="s">
@@ -28713,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>358.974358974359</v>
+        <v>35897</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>97.4358974358974</v>
+        <v>9744</v>
       </c>
       <c r="J110"/>
       <c r="K110" t="s">
@@ -28811,7 +28811,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>356.410256410256</v>
+        <v>35641</v>
       </c>
       <c r="J111"/>
       <c r="K111" t="s">
@@ -28862,7 +28862,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>12.8205128205128</v>
+        <v>1282</v>
       </c>
       <c r="J112" t="s">
         <v>28</v>
@@ -28915,7 +28915,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>21.7948717948718</v>
+        <v>2179</v>
       </c>
       <c r="J113" t="s">
         <v>28</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1.28205128205128</v>
+        <v>128</v>
       </c>
       <c r="J114"/>
       <c r="K114" t="s">
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1.84</v>
+        <v>184</v>
       </c>
       <c r="J115"/>
       <c r="K115" t="s">
@@ -29070,7 +29070,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.12</v>
+        <v>112</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
@@ -29113,7 +29113,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="J117"/>
       <c r="K117" t="s">
@@ -29164,7 +29164,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="J118"/>
       <c r="K118" t="s">
@@ -29215,7 +29215,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="J119"/>
       <c r="K119" t="s">
@@ -29266,7 +29266,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="J120"/>
       <c r="K120" t="s">
@@ -29317,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="J121"/>
       <c r="K121" t="s">
@@ -29368,7 +29368,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.64</v>
+        <v>64</v>
       </c>
       <c r="J122"/>
       <c r="K122" t="s">
@@ -29419,7 +29419,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.08</v>
+        <v>8</v>
       </c>
       <c r="J123"/>
       <c r="K123" t="s">
@@ -29470,7 +29470,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0.746666666666667</v>
+        <v>75</v>
       </c>
       <c r="J124"/>
       <c r="K124" t="s">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.853333333333333</v>
+        <v>85</v>
       </c>
       <c r="J125" t="s">
         <v>28</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>3.89333333333333</v>
+        <v>389</v>
       </c>
       <c r="J126" t="s">
         <v>28</v>
@@ -29627,7 +29627,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.48</v>
+        <v>48</v>
       </c>
       <c r="J127" t="s">
         <v>28</v>
@@ -29680,7 +29680,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1.76</v>
+        <v>176</v>
       </c>
       <c r="J128"/>
       <c r="K128" t="s">
